--- a/leyden-benchmark-scripts/runs.xlsx
+++ b/leyden-benchmark-scripts/runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gabriel.Dinant/Documents/repositories/private/onliner-summit-2025/spring-petclinic-leyden/leyden-benchmark-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57605B07-033A-9141-A62D-BC0DBA4099A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3246DC4-3C8D-5E47-94D2-B48C08DDF325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24180" yWindow="2900" windowWidth="38740" windowHeight="21180" activeTab="1" xr2:uid="{3833D82E-8D20-5846-B5D6-23A8094A4540}"/>
+    <workbookView xWindow="24180" yWindow="2900" windowWidth="38740" windowHeight="21180" xr2:uid="{3833D82E-8D20-5846-B5D6-23A8094A4540}"/>
   </bookViews>
   <sheets>
     <sheet name="leyden-playground extracted" sheetId="3" r:id="rId1"/>
@@ -4277,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAEC2C9-E4EC-3E49-8CC4-0A9680119D17}">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7062,7 +7062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2532F77F-2E80-EA42-889E-2C69BBF60CD8}">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
